--- a/data_year/zb/教育/各级各类学校数.xlsx
+++ b/data_year/zb/教育/各级各类学校数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,619 +478,363 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63898</v>
+        <v>54890</v>
       </c>
       <c r="C2" t="n">
-        <v>175836</v>
+        <v>150420</v>
       </c>
       <c r="D2" t="n">
-        <v>77268</v>
+        <v>68881</v>
       </c>
       <c r="E2" t="n">
-        <v>553622</v>
+        <v>257410</v>
       </c>
       <c r="F2" t="n">
-        <v>14564</v>
+        <v>14058</v>
       </c>
       <c r="G2" t="n">
-        <v>1041</v>
+        <v>2358</v>
       </c>
       <c r="H2" t="n">
-        <v>1539</v>
+        <v>1706</v>
       </c>
       <c r="I2" t="n">
-        <v>8849</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66590</v>
+        <v>54117</v>
       </c>
       <c r="C3" t="n">
-        <v>111706</v>
+        <v>166750</v>
       </c>
       <c r="D3" t="n">
-        <v>80432</v>
+        <v>67751</v>
       </c>
       <c r="E3" t="n">
-        <v>491273</v>
+        <v>241249</v>
       </c>
       <c r="F3" t="n">
-        <v>14907</v>
+        <v>13688</v>
       </c>
       <c r="G3" t="n">
-        <v>1225</v>
+        <v>2409</v>
       </c>
       <c r="H3" t="n">
-        <v>1531</v>
+        <v>1767</v>
       </c>
       <c r="I3" t="n">
-        <v>7802</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65645</v>
+        <v>53216</v>
       </c>
       <c r="C4" t="n">
-        <v>111752</v>
+        <v>181251</v>
       </c>
       <c r="D4" t="n">
-        <v>80067</v>
+        <v>66725</v>
       </c>
       <c r="E4" t="n">
-        <v>456903</v>
+        <v>228585</v>
       </c>
       <c r="F4" t="n">
-        <v>15406</v>
+        <v>13509</v>
       </c>
       <c r="G4" t="n">
-        <v>1396</v>
+        <v>2442</v>
       </c>
       <c r="H4" t="n">
-        <v>1540</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7402</v>
-      </c>
+        <v>1853</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64730</v>
+        <v>52804</v>
       </c>
       <c r="C5" t="n">
-        <v>116390</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79490</v>
-      </c>
+        <v>198553</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>425846</v>
+        <v>213529</v>
       </c>
       <c r="F5" t="n">
-        <v>15779</v>
+        <v>13352</v>
       </c>
       <c r="G5" t="n">
-        <v>1552</v>
+        <v>2491</v>
       </c>
       <c r="H5" t="n">
-        <v>1551</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6843</v>
-      </c>
+        <v>1933</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63757</v>
+        <v>52623</v>
       </c>
       <c r="C6" t="n">
-        <v>117899</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79058</v>
-      </c>
+        <v>209881</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>394183</v>
+        <v>201377</v>
       </c>
       <c r="F6" t="n">
-        <v>15998</v>
+        <v>13253</v>
       </c>
       <c r="G6" t="n">
-        <v>1731</v>
+        <v>2529</v>
       </c>
       <c r="H6" t="n">
-        <v>1560</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6478</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62486</v>
+        <v>52405</v>
       </c>
       <c r="C7" t="n">
-        <v>124402</v>
-      </c>
-      <c r="D7" t="n">
-        <v>77977</v>
-      </c>
+        <v>223683</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>366213</v>
+        <v>190525</v>
       </c>
       <c r="F7" t="n">
-        <v>16092</v>
+        <v>13240</v>
       </c>
       <c r="G7" t="n">
-        <v>1792</v>
+        <v>2560</v>
       </c>
       <c r="H7" t="n">
-        <v>1593</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6423</v>
-      </c>
+        <v>2053</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60885</v>
+        <v>52118</v>
       </c>
       <c r="C8" t="n">
-        <v>130495</v>
-      </c>
-      <c r="D8" t="n">
-        <v>76703</v>
-      </c>
+        <v>239812</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>341639</v>
+        <v>177633</v>
       </c>
       <c r="F8" t="n">
-        <v>16153</v>
+        <v>13383</v>
       </c>
       <c r="G8" t="n">
-        <v>1867</v>
+        <v>2596</v>
       </c>
       <c r="H8" t="n">
-        <v>1605</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6100</v>
-      </c>
+        <v>2080</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59384</v>
+        <v>51894</v>
       </c>
       <c r="C9" t="n">
-        <v>129086</v>
-      </c>
-      <c r="D9" t="n">
-        <v>74790</v>
-      </c>
+        <v>254950</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>320061</v>
+        <v>167009</v>
       </c>
       <c r="F9" t="n">
-        <v>15681</v>
+        <v>13555</v>
       </c>
       <c r="G9" t="n">
-        <v>1908</v>
+        <v>2631</v>
       </c>
       <c r="H9" t="n">
-        <v>1618</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6191</v>
-      </c>
+        <v>2107</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57914</v>
+        <v>51982</v>
       </c>
       <c r="C10" t="n">
-        <v>133722</v>
-      </c>
-      <c r="D10" t="n">
-        <v>72907</v>
-      </c>
+        <v>266677</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>300854</v>
+        <v>161811</v>
       </c>
       <c r="F10" t="n">
-        <v>15206</v>
+        <v>13737</v>
       </c>
       <c r="G10" t="n">
-        <v>2263</v>
+        <v>2663</v>
       </c>
       <c r="H10" t="n">
-        <v>1640</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6128</v>
-      </c>
+        <v>2152</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56320</v>
+        <v>52415</v>
       </c>
       <c r="C11" t="n">
-        <v>138209</v>
-      </c>
-      <c r="D11" t="n">
-        <v>70774</v>
-      </c>
+        <v>281174</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>280184</v>
+        <v>160148</v>
       </c>
       <c r="F11" t="n">
-        <v>14607</v>
+        <v>13964</v>
       </c>
       <c r="G11" t="n">
-        <v>2305</v>
+        <v>2688</v>
       </c>
       <c r="H11" t="n">
-        <v>1672</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5805</v>
-      </c>
+        <v>2192</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54890</v>
+        <v>52805</v>
       </c>
       <c r="C12" t="n">
-        <v>150420</v>
-      </c>
-      <c r="D12" t="n">
-        <v>68881</v>
-      </c>
+        <v>291715</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>257410</v>
+        <v>157979</v>
       </c>
       <c r="F12" t="n">
-        <v>14058</v>
+        <v>14235</v>
       </c>
       <c r="G12" t="n">
-        <v>2358</v>
+        <v>2738</v>
       </c>
       <c r="H12" t="n">
-        <v>1706</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5273</v>
-      </c>
+        <v>2244</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54117</v>
+        <v>52871</v>
       </c>
       <c r="C13" t="n">
-        <v>166750</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67751</v>
-      </c>
+        <v>294832</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>241249</v>
+        <v>154279</v>
       </c>
       <c r="F13" t="n">
-        <v>13688</v>
+        <v>14585</v>
       </c>
       <c r="G13" t="n">
-        <v>2409</v>
+        <v>2756</v>
       </c>
       <c r="H13" t="n">
-        <v>1767</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4856</v>
-      </c>
+        <v>2288</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53216</v>
+        <v>52480</v>
       </c>
       <c r="C14" t="n">
-        <v>181251</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66725</v>
-      </c>
+        <v>289222</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>228585</v>
+        <v>149117</v>
       </c>
       <c r="F14" t="n">
-        <v>13509</v>
+        <v>15026</v>
       </c>
       <c r="G14" t="n">
-        <v>2442</v>
+        <v>2760</v>
       </c>
       <c r="H14" t="n">
-        <v>1853</v>
+        <v>2314</v>
       </c>
       <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>52804</v>
-      </c>
-      <c r="C15" t="n">
-        <v>198553</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>213529</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13352</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2491</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1933</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>52623</v>
-      </c>
-      <c r="C16" t="n">
-        <v>209881</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>201377</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13253</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2529</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>52405</v>
-      </c>
-      <c r="C17" t="n">
-        <v>223683</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>190525</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13240</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2560</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2053</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>52118</v>
-      </c>
-      <c r="C18" t="n">
-        <v>239812</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>177633</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13383</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2596</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2080</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>51894</v>
-      </c>
-      <c r="C19" t="n">
-        <v>254950</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>167009</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13555</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2631</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2107</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>51982</v>
-      </c>
-      <c r="C20" t="n">
-        <v>266677</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>161811</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13737</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2663</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2152</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>52415</v>
-      </c>
-      <c r="C21" t="n">
-        <v>281174</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>160148</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13964</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2688</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2192</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>52805</v>
-      </c>
-      <c r="C22" t="n">
-        <v>291715</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>157979</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14235</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2738</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2244</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
